--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2115" windowWidth="16755" windowHeight="6810" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Organizations" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,8 @@
     <sheet name="Contacts" sheetId="2" r:id="rId3"/>
     <sheet name="Products" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:O21"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -138,7 +139,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -262,7 +263,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -297,7 +298,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -474,7 +475,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -488,13 +489,13 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.54296875" customWidth="1"/>
-    <col min="2" max="2" width="37.1796875" customWidth="1"/>
-    <col min="3" max="3" width="17.90625" customWidth="1"/>
-    <col min="4" max="4" width="17.54296875" customWidth="1"/>
-    <col min="5" max="5" width="13.453125" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="37.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -591,13 +592,13 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B8"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.453125" customWidth="1"/>
-    <col min="2" max="2" width="15.36328125" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -678,13 +679,13 @@
       <selection activeCell="B13" sqref="B12:B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.54296875" customWidth="1"/>
-    <col min="2" max="2" width="42.90625" customWidth="1"/>
-    <col min="3" max="3" width="17.08984375" customWidth="1"/>
-    <col min="4" max="4" width="16.1796875" customWidth="1"/>
-    <col min="5" max="5" width="14.7265625" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="42.85546875" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -782,7 +783,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
